--- a/instances_alns.xlsx
+++ b/instances_alns.xlsx
@@ -7,18 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BT1" sheetId="1" r:id="rId1"/>
-    <sheet name="BT2" sheetId="2" r:id="rId2"/>
-    <sheet name="BT3" sheetId="3" r:id="rId3"/>
-    <sheet name="BT4" sheetId="4" r:id="rId4"/>
-    <sheet name="BT5" sheetId="5" r:id="rId5"/>
-    <sheet name="BT6" sheetId="6" r:id="rId6"/>
-    <sheet name="BT7" sheetId="7" r:id="rId7"/>
-    <sheet name="BT8" sheetId="8" r:id="rId8"/>
-    <sheet name="BT9" sheetId="9" r:id="rId9"/>
-    <sheet name="BT10" sheetId="10" r:id="rId10"/>
-    <sheet name="BT11" sheetId="11" r:id="rId11"/>
-    <sheet name="BT12" sheetId="12" r:id="rId12"/>
+    <sheet name="ALNS1" sheetId="1" r:id="rId1"/>
+    <sheet name="ALNS2" sheetId="2" r:id="rId2"/>
+    <sheet name="ALNS3" sheetId="3" r:id="rId3"/>
+    <sheet name="ALNS4" sheetId="4" r:id="rId4"/>
+    <sheet name="ALNS5" sheetId="5" r:id="rId5"/>
+    <sheet name="ALNS6" sheetId="6" r:id="rId6"/>
+    <sheet name="ALNS7" sheetId="7" r:id="rId7"/>
+    <sheet name="ALNS8" sheetId="8" r:id="rId8"/>
+    <sheet name="ALNS9" sheetId="9" r:id="rId9"/>
+    <sheet name="ALNS10" sheetId="10" r:id="rId10"/>
+    <sheet name="ALNS11" sheetId="11" r:id="rId11"/>
+    <sheet name="ALNS12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -129,7 +129,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>167649</xdr:colOff>
+      <xdr:colOff>163077</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>86874</xdr:rowOff>
     </xdr:to>
@@ -149,7 +149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="571500"/>
-          <a:ext cx="4434849" cy="2944374"/>
+          <a:ext cx="4430277" cy="2944374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -172,7 +172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>167649</xdr:colOff>
+      <xdr:colOff>163077</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>86874</xdr:rowOff>
     </xdr:to>
@@ -192,7 +192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="571500"/>
-          <a:ext cx="4434849" cy="2944374"/>
+          <a:ext cx="4430277" cy="2944374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,7 +344,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163077</xdr:colOff>
+      <xdr:colOff>167649</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>86874</xdr:rowOff>
     </xdr:to>
@@ -364,7 +364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="571500"/>
-          <a:ext cx="4430277" cy="2944374"/>
+          <a:ext cx="4434849" cy="2944374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,13 +516,56 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
+      <xdr:colOff>163077</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="toy_generated-7.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="571500"/>
+          <a:ext cx="4430277" cy="2944374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>167649</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>86874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="toy_generated-7.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="toy_generated-8.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -548,49 +591,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>163077</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86874</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="toy_generated-8.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="571500"/>
-          <a:ext cx="4430277" cy="2944374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -602,7 +602,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>163077</xdr:colOff>
+      <xdr:colOff>167649</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>86874</xdr:rowOff>
     </xdr:to>
@@ -622,7 +622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="571500"/>
-          <a:ext cx="4430277" cy="2944374"/>
+          <a:ext cx="4434849" cy="2944374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>90.95676366102957</v>
+        <v>28.40213328216038</v>
       </c>
       <c r="E2">
-        <v>54.01516715364484</v>
+        <v>52.0756052188593</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>94.97394503776728</v>
+        <v>53.14116761093945</v>
       </c>
       <c r="E3">
-        <v>0.2291536078724454</v>
+        <v>99.36063560195835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>70.94550423162576</v>
+        <v>13.92005382178049</v>
       </c>
       <c r="E4">
-        <v>27.80360614260871</v>
+        <v>16.1334581164506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -995,16 +995,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>26.47016777100128</v>
+        <v>54.4064953119054</v>
       </c>
       <c r="E5">
-        <v>66.73764417495779</v>
+        <v>9.499588385155411</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>53.8810205831341</v>
+        <v>2.742375602064384</v>
       </c>
       <c r="E6">
-        <v>29.93009839109853</v>
+        <v>25.42913004563422</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>42.30346919327521</v>
+        <v>97.24750714674337</v>
       </c>
       <c r="E7">
-        <v>40.17990506451974</v>
+        <v>56.15040259691379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7310463098609499</v>
+        <v>63.68770803630562</v>
       </c>
       <c r="E8">
-        <v>24.96534180694958</v>
+        <v>92.74704201183955</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>20.7002319942245</v>
+        <v>26.60072319328005</v>
       </c>
       <c r="E9">
-        <v>44.96273241013196</v>
+        <v>76.06237919077124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1080,16 +1080,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>8.730785093632488</v>
+        <v>62.69560546595023</v>
       </c>
       <c r="E10">
-        <v>73.69671291347386</v>
+        <v>6.619886859783009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1100,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>42.52604377849002</v>
+        <v>95.96830939429385</v>
       </c>
       <c r="E11">
-        <v>89.42607822921829</v>
+        <v>4.290502146327812</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1139,13 +1139,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1153,13 +1153,13 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1167,13 +1167,13 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1181,13 +1181,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1195,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1209,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1223,13 +1223,13 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1268,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>65.49170843697773</v>
+        <v>29.75601435228899</v>
       </c>
       <c r="E2">
-        <v>73.68443471537746</v>
+        <v>82.3043478413163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1313,13 +1313,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>65.59770945771668</v>
+        <v>59.26945019460007</v>
       </c>
       <c r="E3">
-        <v>74.76688428994453</v>
+        <v>13.61176184918435</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>53.517792366668</v>
+        <v>17.38579189127442</v>
       </c>
       <c r="E4">
-        <v>58.64723229364331</v>
+        <v>98.4046501736505</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1347,13 +1347,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>95.98652901922394</v>
+        <v>25.18704140997032</v>
       </c>
       <c r="E5">
-        <v>6.250215936234572</v>
+        <v>16.83686066726892</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1364,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>89.02749028453039</v>
+        <v>77.35513124800309</v>
       </c>
       <c r="E6">
-        <v>37.6035549658413</v>
+        <v>69.23768715034898</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1378,16 +1378,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>55.21678946012103</v>
+        <v>92.64899246128444</v>
       </c>
       <c r="E7">
-        <v>47.23810762048019</v>
+        <v>59.5546075061345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>94.41297613578189</v>
+        <v>68.44499554397905</v>
       </c>
       <c r="E8">
-        <v>77.72309731341652</v>
+        <v>83.76423282220176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>90.67207461679938</v>
+        <v>39.23862068236744</v>
       </c>
       <c r="E9">
-        <v>75.10929103009336</v>
+        <v>72.42503755752989</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1429,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>99.48800322275684</v>
+        <v>25.51227039800843</v>
       </c>
       <c r="E10">
-        <v>79.3240783038555</v>
+        <v>20.73864006917019</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31.37234664485043</v>
+        <v>52.7113342028805</v>
       </c>
       <c r="E11">
-        <v>46.79699999543858</v>
+        <v>94.71013323341938</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>55.1879360682471</v>
+        <v>71.90031794019353</v>
       </c>
       <c r="E12">
-        <v>89.37174119364541</v>
+        <v>52.65099376981255</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1480,16 +1480,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>52.38891866886829</v>
+        <v>25.26851774669377</v>
       </c>
       <c r="E13">
-        <v>21.17158918802529</v>
+        <v>45.98561052843958</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1497,16 +1497,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>41.55567663779727</v>
+        <v>37.51526275417743</v>
       </c>
       <c r="E14">
-        <v>91.02702097348219</v>
+        <v>69.75111378425945</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>94.33630805781941</v>
+        <v>59.28999945086182</v>
       </c>
       <c r="E15">
-        <v>82.39739095841151</v>
+        <v>44.85089016594318</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>26.6185514821586</v>
+        <v>29.67934820022484</v>
       </c>
       <c r="E16">
-        <v>42.45735012793212</v>
+        <v>10.05663826167993</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>38.7661774180938</v>
+        <v>81.236448891173</v>
       </c>
       <c r="E17">
-        <v>98.50485434428242</v>
+        <v>87.66066120893862</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>46.88580034243726</v>
+        <v>0.8087349830517954</v>
       </c>
       <c r="E18">
-        <v>43.46666647525801</v>
+        <v>27.80015955119528</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1582,16 +1582,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>42.07188107903315</v>
+        <v>8.186899392091718</v>
       </c>
       <c r="E19">
-        <v>90.07981582716212</v>
+        <v>34.46750956987303</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.17754786989019</v>
+        <v>6.513688088133184</v>
       </c>
       <c r="E20">
-        <v>19.71625047939408</v>
+        <v>8.916365185820696</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>77.06383072754055</v>
+        <v>58.80330736618527</v>
       </c>
       <c r="E21">
-        <v>36.60829569457751</v>
+        <v>82.7349948344596</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.52626929554956</v>
+        <v>11.58440263719262</v>
       </c>
       <c r="E22">
-        <v>81.38449868286989</v>
+        <v>69.64856050004703</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1650,16 +1650,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>51.34795181575726</v>
+        <v>9.733424112801202</v>
       </c>
       <c r="E23">
-        <v>41.80035689558599</v>
+        <v>94.21243366895474</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.044740042084928</v>
+        <v>28.20506713698305</v>
       </c>
       <c r="E24">
-        <v>97.38484721086937</v>
+        <v>80.23280248923514</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1684,16 +1684,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>71.99513948453452</v>
+        <v>93.08808413069137</v>
       </c>
       <c r="E25">
-        <v>6.106650779764333</v>
+        <v>15.53477800910599</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1701,16 +1701,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>78.00533254951344</v>
+        <v>35.07035248632898</v>
       </c>
       <c r="E26">
-        <v>86.8155296912786</v>
+        <v>12.28416741399346</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1735,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>23</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1869,10 +1869,10 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1886,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1900,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1911,13 +1911,13 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1928,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1942,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1984,10 +1984,10 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1998,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2012,10 +2012,10 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2023,10 +2023,10 @@
         <v>21</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2037,13 +2037,13 @@
         <v>22</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>23</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>24</v>
       </c>
       <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
         <v>10</v>
-      </c>
-      <c r="C56">
-        <v>23</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>27</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>28</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>29</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>33</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>34</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2225,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>21</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>37</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70">
         <v>18</v>
       </c>
-      <c r="C70">
-        <v>20</v>
-      </c>
       <c r="D70">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2281,6 +2281,20 @@
         <v>23</v>
       </c>
       <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+      <c r="D72">
         <v>1</v>
       </c>
     </row>
@@ -2323,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>94.92436198083989</v>
+        <v>31.59136431044451</v>
       </c>
       <c r="E2">
-        <v>56.24325258678574</v>
+        <v>77.69781981784874</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2337,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>89.75398347311267</v>
+        <v>89.46497776614854</v>
       </c>
       <c r="E3">
-        <v>86.88368568520553</v>
+        <v>90.67659042894385</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2351,16 +2365,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>97.20395076316267</v>
+        <v>59.20070636797617</v>
       </c>
       <c r="E4">
-        <v>57.00066153299944</v>
+        <v>26.58670451383794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2368,16 +2382,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>80.16364879703552</v>
+        <v>91.30967217715535</v>
       </c>
       <c r="E5">
-        <v>47.73624392644849</v>
+        <v>17.2731987618267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2391,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>37.83734858152125</v>
+        <v>63.95402313272953</v>
       </c>
       <c r="E6">
-        <v>82.20576838121843</v>
+        <v>34.47771994935596</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2405,13 +2419,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>99.9840019070471</v>
+        <v>10.67789642749004</v>
       </c>
       <c r="E7">
-        <v>95.53482036962137</v>
+        <v>77.68435010670994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2419,16 +2433,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>71.76183948830891</v>
+        <v>9.605875641934968</v>
       </c>
       <c r="E8">
-        <v>95.43274931378136</v>
+        <v>39.43338383658007</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2436,16 +2450,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>65.99025944423389</v>
+        <v>34.07872468218471</v>
       </c>
       <c r="E9">
-        <v>90.34900461175293</v>
+        <v>94.53194118429053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2456,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>79.6956501919943</v>
+        <v>43.83503109426615</v>
       </c>
       <c r="E10">
-        <v>62.52631596136278</v>
+        <v>22.89550817421718</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2470,16 +2484,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>56.03142732048357</v>
+        <v>99.38994638968978</v>
       </c>
       <c r="E11">
-        <v>15.97856023159584</v>
+        <v>25.73065535806889</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2487,16 +2501,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>62.64433601883447</v>
+        <v>65.84738354061902</v>
       </c>
       <c r="E12">
-        <v>16.99631273593528</v>
+        <v>40.36437029843947</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2510,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.77533059053885</v>
+        <v>22.22126696848793</v>
       </c>
       <c r="E13">
-        <v>37.84781810898645</v>
+        <v>23.6091285352882</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2527,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.962088940929046</v>
+        <v>45.50407387531321</v>
       </c>
       <c r="E14">
-        <v>55.36623533098347</v>
+        <v>65.20284558291443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2544,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>24.05789332129235</v>
+        <v>47.24556333861704</v>
       </c>
       <c r="E15">
-        <v>38.62078811289725</v>
+        <v>69.77846275347903</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2561,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.48971381410521</v>
+        <v>18.40199812920789</v>
       </c>
       <c r="E16">
-        <v>1.197974473422692</v>
+        <v>1.052498934424717</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2578,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>85.45974908707733</v>
+        <v>6.400578668722035</v>
       </c>
       <c r="E17">
-        <v>80.5804738313654</v>
+        <v>70.38612315689062</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2589,16 +2603,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>80.35993119333629</v>
+        <v>91.23200861740128</v>
       </c>
       <c r="E18">
-        <v>42.03873004827678</v>
+        <v>23.58422919004717</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2612,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>85.87775419530914</v>
+        <v>29.93862634021939</v>
       </c>
       <c r="E19">
-        <v>81.56533578496425</v>
+        <v>25.11052263696183</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2629,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>46.38550269081579</v>
+        <v>84.53717745727663</v>
       </c>
       <c r="E20">
-        <v>54.80715078767595</v>
+        <v>17.2366203804422</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2640,16 +2654,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>34.83245260446564</v>
+        <v>96.52129490299167</v>
       </c>
       <c r="E21">
-        <v>33.91781880091279</v>
+        <v>98.72108184734064</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2663,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.540324148090672</v>
+        <v>25.13684665350812</v>
       </c>
       <c r="E22">
-        <v>31.66727958937243</v>
+        <v>54.7747435311146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2680,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.57572702473961</v>
+        <v>69.83655349699185</v>
       </c>
       <c r="E23">
-        <v>94.07637413185844</v>
+        <v>91.73994682075529</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2691,16 +2705,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>31.28882910855359</v>
+        <v>51.12257303940084</v>
       </c>
       <c r="E24">
-        <v>98.34790191027969</v>
+        <v>89.96754405538479</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2708,16 +2722,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>48.10230416802474</v>
+        <v>0.261458621099242</v>
       </c>
       <c r="E25">
-        <v>38.69932433226098</v>
+        <v>87.64585616427651</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2731,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>81.71496341500658</v>
+        <v>31.81228630227585</v>
       </c>
       <c r="E26">
-        <v>31.63068461391342</v>
+        <v>12.91420086680444</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2756,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2770,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2781,13 +2795,13 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2795,13 +2809,13 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2809,13 +2823,13 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2826,10 +2840,10 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2837,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2851,13 +2865,13 @@
         <v>7</v>
       </c>
       <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
         <v>2</v>
-      </c>
-      <c r="C39">
-        <v>16</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2868,10 +2882,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2882,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2899,7 +2913,7 @@
         <v>24</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2910,10 +2924,10 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2921,13 +2935,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2935,13 +2949,13 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2949,13 +2963,13 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2963,13 +2977,13 @@
         <v>15</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2977,13 +2991,13 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2991,10 +3005,10 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -3005,13 +3019,13 @@
         <v>18</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3019,13 +3033,13 @@
         <v>19</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3033,13 +3047,13 @@
         <v>20</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3047,13 +3061,13 @@
         <v>21</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3061,13 +3075,13 @@
         <v>22</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3075,13 +3089,13 @@
         <v>23</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3089,13 +3103,13 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3103,13 +3117,13 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3117,13 +3131,13 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3131,13 +3145,13 @@
         <v>27</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3145,13 +3159,13 @@
         <v>28</v>
       </c>
       <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60">
         <v>10</v>
-      </c>
-      <c r="C60">
-        <v>18</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3159,13 +3173,13 @@
         <v>29</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3173,13 +3187,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3187,13 +3201,13 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3201,13 +3215,13 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3215,13 +3229,13 @@
         <v>33</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3229,13 +3243,13 @@
         <v>34</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3243,13 +3257,13 @@
         <v>35</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3257,13 +3271,13 @@
         <v>36</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3271,13 +3285,13 @@
         <v>37</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3285,13 +3299,13 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3299,13 +3313,13 @@
         <v>39</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3313,13 +3327,13 @@
         <v>40</v>
       </c>
       <c r="B72">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3327,13 +3341,13 @@
         <v>41</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3341,13 +3355,13 @@
         <v>42</v>
       </c>
       <c r="B74">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3355,13 +3369,13 @@
         <v>43</v>
       </c>
       <c r="B75">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3369,13 +3383,13 @@
         <v>44</v>
       </c>
       <c r="B76">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3386,7 +3400,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3411,16 +3425,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>29.95499479654742</v>
+        <v>52.00427971899371</v>
       </c>
       <c r="E2">
-        <v>72.62841342018352</v>
+        <v>71.03203671657059</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3428,16 +3442,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>64.7868306498287</v>
+        <v>14.97655631816611</v>
       </c>
       <c r="E3">
-        <v>5.63131404023951</v>
+        <v>19.82567907890914</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3445,16 +3459,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>58.70371363973273</v>
+        <v>14.11644077658104</v>
       </c>
       <c r="E4">
-        <v>15.11894489905493</v>
+        <v>59.32242869884043</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3468,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.108727067144605</v>
+        <v>84.08911444511806</v>
       </c>
       <c r="E5">
-        <v>31.816630447132</v>
+        <v>14.25065467442614</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3485,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.53752773003967</v>
+        <v>34.40161222635528</v>
       </c>
       <c r="E6">
-        <v>89.22699405699716</v>
+        <v>97.7244162390616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3496,16 +3510,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>1.123859395250359</v>
+        <v>0.3239875507240031</v>
       </c>
       <c r="E7">
-        <v>69.26588114222993</v>
+        <v>42.44348249693159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3519,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>21.9960270270615</v>
+        <v>43.61943431117917</v>
       </c>
       <c r="E8">
-        <v>3.647087359425061</v>
+        <v>24.51648471497943</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3530,16 +3544,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>93.26683118177679</v>
+        <v>93.54151082434386</v>
       </c>
       <c r="E9">
-        <v>88.66640175688038</v>
+        <v>52.24045629559365</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3553,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.42876110935368</v>
+        <v>44.00604191912703</v>
       </c>
       <c r="E10">
-        <v>9.873415103812022</v>
+        <v>68.73664416463178</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3570,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>18.11187744036474</v>
+        <v>58.3593072854754</v>
       </c>
       <c r="E11">
-        <v>53.57950113161052</v>
+        <v>7.088644716207348</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3581,16 +3595,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>34.1209815746714</v>
+        <v>3.878823150995347</v>
       </c>
       <c r="E12">
-        <v>11.124010102878</v>
+        <v>34.22521173969329</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3598,16 +3612,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>96.2504038339476</v>
+        <v>38.71862735626183</v>
       </c>
       <c r="E13">
-        <v>36.09764555931913</v>
+        <v>11.2768922712253</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3615,16 +3629,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>27.18271926255102</v>
+        <v>30.57746036377388</v>
       </c>
       <c r="E14">
-        <v>99.22367186064398</v>
+        <v>27.39505273604239</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3638,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.30362723321594</v>
+        <v>6.700801447424498</v>
       </c>
       <c r="E15">
-        <v>27.87543912577156</v>
+        <v>6.179567652415729</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3652,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>56.98429345030137</v>
+        <v>70.1701577034369</v>
       </c>
       <c r="E16">
-        <v>93.99742849716615</v>
+        <v>70.19580002605036</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3672,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>40.41787809354715</v>
+        <v>42.06599347331349</v>
       </c>
       <c r="E17">
-        <v>72.44153665333629</v>
+        <v>96.72538748770499</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3689,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>60.24357855723139</v>
+        <v>57.8264581925479</v>
       </c>
       <c r="E18">
-        <v>48.46310045611908</v>
+        <v>35.99443159941704</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3700,16 +3714,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>74.17346047280694</v>
+        <v>65.23436414664577</v>
       </c>
       <c r="E19">
-        <v>59.75317973733465</v>
+        <v>32.12368054586495</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3717,16 +3731,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>45.34778352292677</v>
+        <v>62.60075334171892</v>
       </c>
       <c r="E20">
-        <v>92.86664389168098</v>
+        <v>66.09763031565905</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3734,16 +3748,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>40.67274549108535</v>
+        <v>25.52742355348214</v>
       </c>
       <c r="E21">
-        <v>62.17823452197295</v>
+        <v>19.60355231379194</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3751,16 +3765,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>91.15666346994344</v>
+        <v>57.46973129540613</v>
       </c>
       <c r="E22">
-        <v>31.81042217760879</v>
+        <v>99.391028187896</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3774,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>29.43600682570301</v>
+        <v>56.16638179401426</v>
       </c>
       <c r="E23">
-        <v>2.433580360954701</v>
+        <v>66.50629868234307</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3785,16 +3799,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>52.67427459978947</v>
+        <v>60.80989286242996</v>
       </c>
       <c r="E24">
-        <v>93.33036966220428</v>
+        <v>93.81181267585697</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3808,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.35307983998425</v>
+        <v>63.82277623379701</v>
       </c>
       <c r="E25">
-        <v>5.003260899564921</v>
+        <v>82.98771985133978</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3825,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>36.66725896425373</v>
+        <v>87.23402391512532</v>
       </c>
       <c r="E26">
-        <v>80.95693675763734</v>
+        <v>34.41759182400867</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3850,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3864,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -3878,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3892,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -3906,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3920,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3931,13 +3945,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3945,13 +3959,13 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>21</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3959,13 +3973,13 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3973,10 +3987,10 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3987,13 +4001,13 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4001,13 +4015,13 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4015,13 +4029,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4029,10 +4043,10 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4043,13 +4057,13 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4057,13 +4071,13 @@
         <v>15</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4071,13 +4085,13 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4085,13 +4099,13 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4099,13 +4113,13 @@
         <v>18</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4113,13 +4127,13 @@
         <v>19</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4130,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4141,13 +4155,13 @@
         <v>21</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4158,10 +4172,10 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4172,10 +4186,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4183,13 +4197,13 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4197,13 +4211,13 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4214,10 +4228,10 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4228,10 +4242,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4242,10 +4256,10 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4253,13 +4267,13 @@
         <v>29</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4270,10 +4284,10 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4281,13 +4295,13 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4295,13 +4309,13 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4309,10 +4323,10 @@
         <v>33</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4323,13 +4337,13 @@
         <v>34</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4337,13 +4351,13 @@
         <v>35</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4351,13 +4365,13 @@
         <v>36</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4365,13 +4379,13 @@
         <v>37</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4379,13 +4393,13 @@
         <v>38</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4393,13 +4407,13 @@
         <v>39</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4407,13 +4421,13 @@
         <v>40</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4421,13 +4435,13 @@
         <v>41</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4435,13 +4449,13 @@
         <v>42</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4449,13 +4463,13 @@
         <v>43</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4463,13 +4477,13 @@
         <v>44</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4483,7 +4497,7 @@
         <v>19</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4491,13 +4505,13 @@
         <v>46</v>
       </c>
       <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
         <v>18</v>
       </c>
-      <c r="C78">
-        <v>22</v>
-      </c>
       <c r="D78">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4505,13 +4519,13 @@
         <v>47</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4519,13 +4533,13 @@
         <v>48</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4533,13 +4547,27 @@
         <v>49</v>
       </c>
       <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81">
         <v>23</v>
       </c>
-      <c r="C81">
-        <v>24</v>
-      </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>50</v>
+      </c>
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4581,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.1855357916239</v>
+        <v>23.79933798780994</v>
       </c>
       <c r="E2">
-        <v>57.27536189203079</v>
+        <v>58.10238565832037</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4592,16 +4620,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>29.4851966760122</v>
+        <v>21.57961464706138</v>
       </c>
       <c r="E3">
-        <v>5.101665583375159</v>
+        <v>29.56640512923372</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4609,16 +4637,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>3.729991281170475</v>
+        <v>82.60769345250156</v>
       </c>
       <c r="E4">
-        <v>82.09220033910252</v>
+        <v>78.53991492509323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4626,16 +4654,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>36.45823424295993</v>
+        <v>89.39990193326857</v>
       </c>
       <c r="E5">
-        <v>66.97985722258515</v>
+        <v>45.17729525173616</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4646,13 +4674,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>62.71254796993981</v>
+        <v>68.75068973311275</v>
       </c>
       <c r="E6">
-        <v>88.10058760891447</v>
+        <v>87.84426483209521</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4666,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.75047250822697</v>
+        <v>6.720931911725526</v>
       </c>
       <c r="E7">
-        <v>45.69680673745289</v>
+        <v>69.59368128192513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4677,16 +4705,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>8.061385601851512</v>
+        <v>23.96860034218081</v>
       </c>
       <c r="E8">
-        <v>29.78588476929579</v>
+        <v>45.27593769180642</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4700,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>56.95440185641638</v>
+        <v>24.93526982098777</v>
       </c>
       <c r="E9">
-        <v>65.88840946794802</v>
+        <v>95.34275561508676</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4717,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>48.79868027241153</v>
+        <v>71.27617478591596</v>
       </c>
       <c r="E10">
-        <v>6.715158937736165</v>
+        <v>92.72986661319389</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4728,16 +4756,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>62.22590422450948</v>
+        <v>77.52168151274169</v>
       </c>
       <c r="E11">
-        <v>26.92101656015354</v>
+        <v>83.77071725130924</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4759,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4773,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4784,13 +4812,13 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4798,13 +4826,13 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4815,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4829,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4840,13 +4868,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4857,10 +4885,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4868,13 +4896,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4882,13 +4910,13 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4896,13 +4924,13 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4910,13 +4938,13 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4924,13 +4952,13 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4944,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4958,7 +4986,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4994,16 +5022,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>10.64835012302748</v>
+        <v>44.33557477081844</v>
       </c>
       <c r="E2">
-        <v>53.20931843692065</v>
+        <v>36.68328416605129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5017,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>79.77460727347029</v>
+        <v>24.65394185630667</v>
       </c>
       <c r="E3">
-        <v>5.748687268313601</v>
+        <v>4.15601330472597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5031,13 +5059,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>8.71866587770721</v>
+        <v>86.64228000383596</v>
       </c>
       <c r="E4">
-        <v>3.298195304418206</v>
+        <v>43.57467093405563</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5048,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>50.08943837962643</v>
+        <v>69.41308452973611</v>
       </c>
       <c r="E5">
-        <v>99.67189594841003</v>
+        <v>0.4370671801401826</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5062,16 +5090,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>24.87612393006582</v>
+        <v>4.272551549610936</v>
       </c>
       <c r="E6">
-        <v>72.36509894166268</v>
+        <v>84.44830381895451</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5079,16 +5107,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>49.03176294740001</v>
+        <v>2.342103623561997</v>
       </c>
       <c r="E7">
-        <v>0.4613673603594992</v>
+        <v>69.02224960288473</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5102,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>26.61194661762326</v>
+        <v>16.57746091119545</v>
       </c>
       <c r="E8">
-        <v>54.87405045437711</v>
+        <v>5.774725128849334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5119,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.496005540729688</v>
+        <v>80.35806220238945</v>
       </c>
       <c r="E9">
-        <v>61.12193517135791</v>
+        <v>94.96555729508233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5136,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>37.41081143406932</v>
+        <v>0.08472658492600926</v>
       </c>
       <c r="E10">
-        <v>15.64578549032971</v>
+        <v>21.01585062404943</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5147,16 +5175,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>35.87483653316703</v>
+        <v>6.541157118469842</v>
       </c>
       <c r="E11">
-        <v>22.19224723241041</v>
+        <v>91.1087301538453</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5178,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5192,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5206,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5223,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5234,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5248,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5262,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5279,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5290,10 +5318,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5304,10 +5332,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5318,10 +5346,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5332,10 +5360,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5346,10 +5374,10 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5360,10 +5388,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5374,10 +5402,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5385,13 +5413,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5405,7 +5433,7 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5413,13 +5441,13 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5427,13 +5455,13 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5444,10 +5472,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5483,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>97.7923316346422</v>
+        <v>34.06611748441527</v>
       </c>
       <c r="E2">
-        <v>61.52901390968333</v>
+        <v>84.56303696854107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5506,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>71.04905217362003</v>
+        <v>3.963482303422594</v>
       </c>
       <c r="E3">
-        <v>45.97263107783619</v>
+        <v>45.5183813793964</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5523,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>65.11670933416833</v>
+        <v>21.54213932882789</v>
       </c>
       <c r="E4">
-        <v>92.86475673132688</v>
+        <v>10.51276499646097</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5540,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>22.12709923506069</v>
+        <v>47.28134907810914</v>
       </c>
       <c r="E5">
-        <v>22.44796043222921</v>
+        <v>29.11317694684241</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5551,16 +5579,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>18.90061139831175</v>
+        <v>20.91110442984134</v>
       </c>
       <c r="E6">
-        <v>3.249595250822379</v>
+        <v>85.5081858702367</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5574,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.76199019636964</v>
+        <v>9.758769494846131</v>
       </c>
       <c r="E7">
-        <v>92.00343504815244</v>
+        <v>55.83648326138834</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5585,16 +5613,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1.553066984372142</v>
+        <v>99.36471738452499</v>
       </c>
       <c r="E8">
-        <v>15.97671521989892</v>
+        <v>99.1944890143906</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5605,13 +5633,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>81.53797510039833</v>
+        <v>88.47026668859253</v>
       </c>
       <c r="E9">
-        <v>44.42005685272152</v>
+        <v>66.86121819141746</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5619,16 +5647,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3.253984992492553</v>
+        <v>82.75887081058201</v>
       </c>
       <c r="E10">
-        <v>92.69217283208194</v>
+        <v>64.57002883437742</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5642,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>52.32996733705859</v>
+        <v>99.1140962187491</v>
       </c>
       <c r="E11">
-        <v>2.424867272720388</v>
+        <v>99.10698114948492</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5653,16 +5681,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>89.43676805205038</v>
+        <v>54.74574833055277</v>
       </c>
       <c r="E12">
-        <v>85.63947773499982</v>
+        <v>52.22425035230022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5676,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>96.94000887995628</v>
+        <v>8.250645515439247</v>
       </c>
       <c r="E13">
-        <v>18.84504815316583</v>
+        <v>73.26819031921889</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5687,16 +5715,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>88.39991811081863</v>
+        <v>32.36048637995643</v>
       </c>
       <c r="E14">
-        <v>61.52432646674612</v>
+        <v>98.3811927135969</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5710,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.89282553976411</v>
+        <v>30.75746799653632</v>
       </c>
       <c r="E15">
-        <v>61.83002791500861</v>
+        <v>27.71268078489957</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5727,10 +5755,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>97.88340802432953</v>
+        <v>50.44053528162673</v>
       </c>
       <c r="E16">
-        <v>7.41009949200091</v>
+        <v>0.7913369162168782</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5752,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5766,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5777,13 +5805,13 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5794,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5805,13 +5833,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5819,13 +5847,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5833,13 +5861,13 @@
         <v>6</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
       <c r="D28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5850,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -5861,13 +5889,13 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5875,13 +5903,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5889,13 +5917,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5903,13 +5931,13 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5917,13 +5945,13 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5931,10 +5959,10 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -5945,13 +5973,13 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5959,13 +5987,13 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5973,13 +6001,13 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5987,13 +6015,13 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6001,13 +6029,13 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6015,13 +6043,13 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6029,13 +6057,13 @@
         <v>20</v>
       </c>
       <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
         <v>13</v>
       </c>
-      <c r="C42">
-        <v>14</v>
-      </c>
       <c r="D42">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6077,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>48.81641416639595</v>
+        <v>8.044147838718075</v>
       </c>
       <c r="E2">
-        <v>93.58412519822197</v>
+        <v>29.49144832522254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6088,16 +6116,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>69.62356450219474</v>
+        <v>75.04804157695413</v>
       </c>
       <c r="E3">
-        <v>66.40481562792462</v>
+        <v>39.88709491613928</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6105,16 +6133,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>37.72744878973023</v>
+        <v>23.82742935465645</v>
       </c>
       <c r="E4">
-        <v>19.26761346255826</v>
+        <v>55.24650291088785</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6122,16 +6150,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>79.72457936640701</v>
+        <v>0.2739972444299688</v>
       </c>
       <c r="E5">
-        <v>45.09016899510444</v>
+        <v>88.32027466288208</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6139,16 +6167,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>20.34068525925136</v>
+        <v>51.82120117118101</v>
       </c>
       <c r="E6">
-        <v>83.35154690777237</v>
+        <v>79.44799151005033</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6162,10 +6190,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>72.95522332779363</v>
+        <v>87.77449416586408</v>
       </c>
       <c r="E7">
-        <v>96.24571679108183</v>
+        <v>0.9549314451547941</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6173,16 +6201,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>61.33756805839836</v>
+        <v>54.41445756223943</v>
       </c>
       <c r="E8">
-        <v>28.73277421878545</v>
+        <v>72.15238510144505</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6196,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>69.48821469748972</v>
+        <v>85.24588072069287</v>
       </c>
       <c r="E9">
-        <v>12.16340964698764</v>
+        <v>61.3129279128093</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6213,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>95.69875131048379</v>
+        <v>43.40533581556657</v>
       </c>
       <c r="E10">
-        <v>83.79740286370951</v>
+        <v>78.06216009051379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6230,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>33.00397193311895</v>
+        <v>77.24368475030367</v>
       </c>
       <c r="E11">
-        <v>57.95846788809037</v>
+        <v>1.628347629790938</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6241,16 +6269,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>19.92376619050135</v>
+        <v>95.40964444458515</v>
       </c>
       <c r="E12">
-        <v>73.55574504996194</v>
+        <v>83.54082906405336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6258,16 +6286,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>91.79578551669579</v>
+        <v>2.466656620626528</v>
       </c>
       <c r="E13">
-        <v>45.38882709738731</v>
+        <v>6.96634286558907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6275,16 +6303,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>11.09303997111815</v>
+        <v>29.14606724698815</v>
       </c>
       <c r="E14">
-        <v>97.95643816531965</v>
+        <v>39.20310124120322</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6292,16 +6320,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>4.441441241044785</v>
+        <v>4.816048162914521</v>
       </c>
       <c r="E15">
-        <v>93.97059326472281</v>
+        <v>94.27246217727424</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6309,16 +6337,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>35.35627808360584</v>
+        <v>69.85977813790775</v>
       </c>
       <c r="E16">
-        <v>63.74295191537699</v>
+        <v>73.80230569607173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6340,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
         <v>10</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6354,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6368,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6379,13 +6407,13 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6393,13 +6421,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6407,13 +6435,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6421,13 +6449,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6435,13 +6463,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6449,13 +6477,13 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6466,10 +6494,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6480,10 +6508,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6494,10 +6522,10 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6508,10 +6536,10 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6522,10 +6550,10 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6536,10 +6564,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6547,13 +6575,13 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6561,13 +6589,13 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6575,13 +6603,13 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6589,10 +6617,10 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -6603,13 +6631,13 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6617,13 +6645,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6631,10 +6659,10 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -6645,13 +6673,13 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6659,13 +6687,13 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6673,13 +6701,13 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6715,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>47.12793665005493</v>
+        <v>25.17938800601065</v>
       </c>
       <c r="E2">
-        <v>16.42526967603718</v>
+        <v>62.77187537756467</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6732,16 +6760,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>16.02454086635638</v>
+        <v>83.30812221867697</v>
       </c>
       <c r="E3">
-        <v>79.90386317759129</v>
+        <v>46.31286875875698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6752,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>52.02690214318568</v>
+        <v>47.43298107076406</v>
       </c>
       <c r="E4">
-        <v>13.969637308492</v>
+        <v>50.01253032087784</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6769,13 +6797,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>95.8418448440311</v>
+        <v>53.22244434004265</v>
       </c>
       <c r="E5">
-        <v>10.63062152984825</v>
+        <v>78.60913954003045</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6789,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>77.71243747451237</v>
+        <v>96.62356623989984</v>
       </c>
       <c r="E6">
-        <v>71.07560974570274</v>
+        <v>37.25937327405801</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6806,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>95.75797838133155</v>
+        <v>26.68466984377102</v>
       </c>
       <c r="E7">
-        <v>29.5708426941133</v>
+        <v>20.85243116510843</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6817,16 +6845,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>14.44819978483264</v>
+        <v>96.03202863281042</v>
       </c>
       <c r="E8">
-        <v>21.03350569131951</v>
+        <v>48.3587924428827</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6840,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>48.67503934625199</v>
+        <v>97.04529400647542</v>
       </c>
       <c r="E9">
-        <v>70.72904427333667</v>
+        <v>47.87940217799787</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6857,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>39.46117198621346</v>
+        <v>50.18986581729641</v>
       </c>
       <c r="E10">
-        <v>53.81387554691946</v>
+        <v>92.9525019886465</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6868,16 +6896,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>39.05002625691599</v>
+        <v>15.75273434665008</v>
       </c>
       <c r="E11">
-        <v>30.80663098047478</v>
+        <v>49.52978810827532</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6885,16 +6913,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>60.80615080956006</v>
+        <v>85.45237787980396</v>
       </c>
       <c r="E12">
-        <v>58.29277664067018</v>
+        <v>1.433467770555474</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6902,16 +6930,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>49.24521671175442</v>
+        <v>40.79974396227693</v>
       </c>
       <c r="E13">
-        <v>69.88797999943206</v>
+        <v>11.21103993190702</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6925,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.62915868530405</v>
+        <v>11.8104099878841</v>
       </c>
       <c r="E14">
-        <v>42.06320567334366</v>
+        <v>86.63281769560778</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6942,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>63.2393870224678</v>
+        <v>46.54166905935786</v>
       </c>
       <c r="E15">
-        <v>26.28948621579072</v>
+        <v>46.57478811392187</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6953,16 +6981,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>12.79555277022607</v>
+        <v>79.12705842650496</v>
       </c>
       <c r="E16">
-        <v>54.67644411272643</v>
+        <v>95.93490472583709</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6984,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6998,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7012,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7023,13 +7051,13 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7037,13 +7065,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7054,10 +7082,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7065,13 +7093,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7079,10 +7107,10 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -7093,13 +7121,13 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7107,13 +7135,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7121,13 +7149,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7135,13 +7163,13 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7149,13 +7177,13 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7163,13 +7191,13 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7177,13 +7205,13 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7191,13 +7219,13 @@
         <v>15</v>
       </c>
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
         <v>2</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7205,13 +7233,13 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7219,13 +7247,13 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7233,13 +7261,13 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7247,13 +7275,13 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7261,13 +7289,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7275,13 +7303,13 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7289,13 +7317,13 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7303,13 +7331,13 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7317,13 +7345,13 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>12</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7331,13 +7359,13 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7345,13 +7373,13 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7359,13 +7387,13 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7373,10 +7401,10 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -7387,13 +7415,13 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +7432,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7429,16 +7457,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>93.63293602844826</v>
+        <v>48.53698936343748</v>
       </c>
       <c r="E2">
-        <v>53.05367597261613</v>
+        <v>84.36117528363896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7446,16 +7474,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>69.22889288561571</v>
+        <v>56.1135613985638</v>
       </c>
       <c r="E3">
-        <v>26.79792088298674</v>
+        <v>14.32796182871487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7469,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.656460336527859</v>
+        <v>92.94148683880408</v>
       </c>
       <c r="E4">
-        <v>56.26728317438838</v>
+        <v>33.4062077500761</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7480,16 +7508,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>74.11986227299988</v>
+        <v>78.363227572707</v>
       </c>
       <c r="E5">
-        <v>55.25638611142616</v>
+        <v>60.03958748867554</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7500,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>93.7171275776216</v>
+        <v>4.615488099771481</v>
       </c>
       <c r="E6">
-        <v>23.3695046656287</v>
+        <v>94.49716194680107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7514,16 +7542,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>26.58824005760342</v>
+        <v>43.4125206023263</v>
       </c>
       <c r="E7">
-        <v>43.76735970834902</v>
+        <v>86.13547320675792</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7531,16 +7559,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>84.11262053434795</v>
+        <v>44.3996949526384</v>
       </c>
       <c r="E8">
-        <v>68.45299782244724</v>
+        <v>60.91052913881403</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7554,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>73.54456954671703</v>
+        <v>61.5302827960749</v>
       </c>
       <c r="E9">
-        <v>60.23758895221032</v>
+        <v>51.98264742566838</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7565,16 +7593,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>9.524011279223588</v>
+        <v>73.72375569238019</v>
       </c>
       <c r="E10">
-        <v>60.63039560008806</v>
+        <v>35.91240386238113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7588,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>26.62684419462449</v>
+        <v>15.41538828813633</v>
       </c>
       <c r="E11">
-        <v>61.85249659521494</v>
+        <v>7.080993319277584</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7605,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>50.18710329807192</v>
+        <v>75.46460985819584</v>
       </c>
       <c r="E12">
-        <v>78.77581051359425</v>
+        <v>39.20222454183357</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7622,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.79591832165814</v>
+        <v>58.16925553064027</v>
       </c>
       <c r="E13">
-        <v>41.73031067395282</v>
+        <v>48.58025625074387</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7639,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>41.77719011586497</v>
+        <v>50.35800289293299</v>
       </c>
       <c r="E14">
-        <v>71.116913056215</v>
+        <v>27.47855317664177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7656,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>48.00410730376563</v>
+        <v>77.32857405025999</v>
       </c>
       <c r="E15">
-        <v>22.16819509964457</v>
+        <v>75.72885594649816</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7667,16 +7695,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>67.64390244383571</v>
+        <v>24.84161570977599</v>
       </c>
       <c r="E16">
-        <v>75.05716626132852</v>
+        <v>37.49162170097343</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7684,16 +7712,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>63.58963679712893</v>
+        <v>35.4103059657163</v>
       </c>
       <c r="E17">
-        <v>95.23356133235741</v>
+        <v>94.68411155921561</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7701,16 +7729,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>38.8098797128898</v>
+        <v>0.3444790450141677</v>
       </c>
       <c r="E18">
-        <v>90.01925165083236</v>
+        <v>32.73838435741839</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7718,16 +7746,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>79.900921017928</v>
+        <v>95.1284316217444</v>
       </c>
       <c r="E19">
-        <v>28.51495757971507</v>
+        <v>70.26992580400065</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7741,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>48.53791845873462</v>
+        <v>37.72323128196856</v>
       </c>
       <c r="E20">
-        <v>5.061147502703678</v>
+        <v>95.34430836347528</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7752,16 +7780,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>42.21352440947614</v>
+        <v>82.87583610355279</v>
       </c>
       <c r="E21">
-        <v>25.64357617765079</v>
+        <v>27.72154114956753</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7783,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7797,10 +7825,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7808,13 +7836,13 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7825,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7836,13 +7864,13 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7850,10 +7878,10 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -7864,13 +7892,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7878,13 +7906,13 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7892,10 +7920,10 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -7909,7 +7937,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -7923,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7937,7 +7965,7 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -7951,10 +7979,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7965,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -7976,13 +8004,13 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7993,10 +8021,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8007,10 +8035,10 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8018,13 +8046,13 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8035,10 +8063,10 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8049,10 +8077,10 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8063,7 +8091,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -8080,7 +8108,7 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8088,13 +8116,13 @@
         <v>22</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8102,10 +8130,10 @@
         <v>23</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -8116,13 +8144,13 @@
         <v>24</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8133,10 +8161,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8144,10 +8172,10 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -8161,10 +8189,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8175,10 +8203,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8186,41 +8214,13 @@
         <v>29</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>30</v>
-      </c>
-      <c r="B57">
-        <v>15</v>
-      </c>
-      <c r="C57">
-        <v>19</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>31</v>
-      </c>
-      <c r="B58">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>19</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8259,13 +8259,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>76.5697379827981</v>
+        <v>0.6681126628447553</v>
       </c>
       <c r="E2">
-        <v>53.44660922500641</v>
+        <v>2.187768916400457</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8273,16 +8273,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>15.03055679651253</v>
+        <v>25.4980427988824</v>
       </c>
       <c r="E3">
-        <v>56.24697048868209</v>
+        <v>98.39630639566674</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8290,16 +8290,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>36.28756457362311</v>
+        <v>13.23412848690084</v>
       </c>
       <c r="E4">
-        <v>71.46876820960824</v>
+        <v>31.27560267412581</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8307,16 +8307,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>73.28076217097123</v>
+        <v>24.22823832542249</v>
       </c>
       <c r="E5">
-        <v>8.151322316360698</v>
+        <v>3.108099212315729</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8330,10 +8330,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>18.26343375232317</v>
+        <v>6.607817921232673</v>
       </c>
       <c r="E6">
-        <v>38.23991064322342</v>
+        <v>11.31932360654259</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8341,16 +8341,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>36.00459181271075</v>
+        <v>23.60962447104317</v>
       </c>
       <c r="E7">
-        <v>25.34284212192209</v>
+        <v>83.85455266549938</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8364,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>44.69000873621656</v>
+        <v>76.0581469899803</v>
       </c>
       <c r="E8">
-        <v>10.10842338885449</v>
+        <v>98.47742247525204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.51397060494738</v>
+        <v>59.5501534070544</v>
       </c>
       <c r="E9">
-        <v>96.63703034415492</v>
+        <v>43.44767023624839</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>95.33466361074828</v>
+        <v>87.16855230823745</v>
       </c>
       <c r="E10">
-        <v>5.264600698649113</v>
+        <v>68.82199767454647</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8415,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>93.16641422783285</v>
+        <v>99.37382473354488</v>
       </c>
       <c r="E11">
-        <v>9.726674581750682</v>
+        <v>77.62508956738986</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8426,16 +8426,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>53.65719579763994</v>
+        <v>52.07360445904733</v>
       </c>
       <c r="E12">
-        <v>12.20416543646117</v>
+        <v>70.45022164771922</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8446,13 +8446,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>88.15576191402582</v>
+        <v>85.39759018799955</v>
       </c>
       <c r="E13">
-        <v>42.00441251014261</v>
+        <v>25.4223299698128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8466,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>64.67060816124884</v>
+        <v>18.86095285539444</v>
       </c>
       <c r="E14">
-        <v>40.32904590349789</v>
+        <v>21.99461690105495</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8477,16 +8477,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>82.18427371783831</v>
+        <v>74.44166015622777</v>
       </c>
       <c r="E15">
-        <v>53.44276859583866</v>
+        <v>74.08359239953974</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8500,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>47.08801118314835</v>
+        <v>1.6195582344815</v>
       </c>
       <c r="E16">
-        <v>1.942707696281032</v>
+        <v>61.57812966003847</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8517,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>42.65190235875485</v>
+        <v>81.1809977898897</v>
       </c>
       <c r="E17">
-        <v>23.22723756989635</v>
+        <v>5.491398331916619</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8531,13 +8531,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>38.97595842473645</v>
+        <v>61.78894788033937</v>
       </c>
       <c r="E18">
-        <v>17.1954075268267</v>
+        <v>69.05604283411697</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8551,10 +8551,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>89.29608410238798</v>
+        <v>81.62762371373547</v>
       </c>
       <c r="E19">
-        <v>64.14627572463941</v>
+        <v>7.544680898657297</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8562,16 +8562,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>67.07588368270137</v>
+        <v>22.03047663626113</v>
       </c>
       <c r="E20">
-        <v>83.4376160540467</v>
+        <v>75.03961769221816</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8582,13 +8582,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>74.28338241352702</v>
+        <v>50.35980913201622</v>
       </c>
       <c r="E21">
-        <v>69.45483265364246</v>
+        <v>26.32116728479354</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -8624,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8638,10 +8638,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8652,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8666,10 +8666,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8680,10 +8680,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8691,13 +8691,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8705,13 +8705,13 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8719,13 +8719,13 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8733,13 +8733,13 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8747,13 +8747,13 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8764,10 +8764,10 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8775,13 +8775,13 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8789,13 +8789,13 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8820,7 +8820,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -8834,10 +8834,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8848,10 +8848,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8862,10 +8862,10 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8890,10 +8890,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8904,10 +8904,10 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8915,13 +8915,13 @@
         <v>22</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8935,7 +8935,7 @@
         <v>13</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8946,10 +8946,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8957,10 +8957,10 @@
         <v>25</v>
       </c>
       <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
         <v>10</v>
-      </c>
-      <c r="C52">
-        <v>19</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -8971,13 +8971,13 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8985,13 +8985,13 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8999,13 +8999,13 @@
         <v>28</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -9013,13 +9013,13 @@
         <v>29</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>18</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9030,10 +9030,10 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -9041,13 +9041,13 @@
         <v>31</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9058,10 +9058,10 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9069,13 +9069,13 @@
         <v>33</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -9083,13 +9083,13 @@
         <v>34</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>19</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9131,10 +9131,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>59.7759885086562</v>
+        <v>54.13310029909778</v>
       </c>
       <c r="E2">
-        <v>23.9769033998728</v>
+        <v>4.662155682833435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9142,16 +9142,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>12.14780370371745</v>
+        <v>96.55363150056418</v>
       </c>
       <c r="E3">
-        <v>15.25642114328535</v>
+        <v>39.48759156140851</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9159,16 +9159,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>9.144445061827</v>
+        <v>95.3495981635665</v>
       </c>
       <c r="E4">
-        <v>22.76973848759131</v>
+        <v>24.98303937969713</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9176,16 +9176,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>94.01634824029868</v>
+        <v>76.16622323594058</v>
       </c>
       <c r="E5">
-        <v>49.53865493750942</v>
+        <v>89.76270898550489</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9193,16 +9193,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>97.5141787373755</v>
+        <v>13.89387899220087</v>
       </c>
       <c r="E6">
-        <v>20.33501320451445</v>
+        <v>21.86210549918615</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9210,16 +9210,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>85.21848207614211</v>
+        <v>72.85906990570736</v>
       </c>
       <c r="E7">
-        <v>20.95882936149119</v>
+        <v>2.339562791695093</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9227,16 +9227,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>26.18755755593289</v>
+        <v>88.8075510328154</v>
       </c>
       <c r="E8">
-        <v>28.07884331601157</v>
+        <v>29.63762682517391</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9244,16 +9244,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>74.81915367719037</v>
+        <v>70.42543224892283</v>
       </c>
       <c r="E9">
-        <v>79.94391621998705</v>
+        <v>77.52946380266191</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9267,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>81.55155259043072</v>
+        <v>55.16237145730673</v>
       </c>
       <c r="E10">
-        <v>34.26114580945978</v>
+        <v>97.44365654655304</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9278,16 +9278,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>87.500820499516</v>
+        <v>67.46242416956166</v>
       </c>
       <c r="E11">
-        <v>66.83686022456747</v>
+        <v>85.02887245166102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9298,13 +9298,13 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>38.89338612112538</v>
+        <v>48.96367512788377</v>
       </c>
       <c r="E12">
-        <v>85.03847858243343</v>
+        <v>1.061030226140169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9312,16 +9312,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>93.91726646597969</v>
+        <v>24.51307120858938</v>
       </c>
       <c r="E13">
-        <v>69.66562557752258</v>
+        <v>50.88173798574785</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>76.84466338534249</v>
+        <v>8.24171305387279</v>
       </c>
       <c r="E14">
-        <v>57.32207381994866</v>
+        <v>11.05095784769602</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9352,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>29.15334026977503</v>
+        <v>45.78682162187469</v>
       </c>
       <c r="E15">
-        <v>58.20760418739987</v>
+        <v>61.36177962922714</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9369,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>85.88265555169681</v>
+        <v>23.42996894718652</v>
       </c>
       <c r="E16">
-        <v>82.10551482763445</v>
+        <v>27.06578956586729</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9386,10 +9386,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>27.0323127350407</v>
+        <v>26.74492588075729</v>
       </c>
       <c r="E17">
-        <v>4.081846195492133</v>
+        <v>34.87724750449826</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9397,16 +9397,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>33.52783788328144</v>
+        <v>50.44335513328377</v>
       </c>
       <c r="E18">
-        <v>74.95373001261117</v>
+        <v>83.52617905809896</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9414,16 +9414,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>56.53473434761934</v>
+        <v>21.50217696185334</v>
       </c>
       <c r="E19">
-        <v>98.26873435954676</v>
+        <v>58.31461118851371</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9437,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>48.05662247750698</v>
+        <v>7.34010521266617</v>
       </c>
       <c r="E20">
-        <v>49.75400030554567</v>
+        <v>77.1977244357374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9451,13 +9451,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>63.05989395542883</v>
+        <v>49.4966478923738</v>
       </c>
       <c r="E21">
-        <v>49.07389039557235</v>
+        <v>41.80192004859896</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9493,10 +9493,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9507,10 +9507,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9518,10 +9518,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -9532,13 +9532,13 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9549,10 +9549,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9563,10 +9563,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -9591,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9602,13 +9602,13 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -9616,13 +9616,13 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9633,10 +9633,10 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9647,10 +9647,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9661,10 +9661,10 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -9675,10 +9675,10 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9686,10 +9686,10 @@
         <v>15</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -9700,7 +9700,7 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>17</v>
@@ -9717,10 +9717,10 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -9728,13 +9728,13 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9742,13 +9742,13 @@
         <v>19</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9756,13 +9756,13 @@
         <v>20</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -9773,10 +9773,10 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9787,10 +9787,10 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -9798,13 +9798,13 @@
         <v>23</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9815,10 +9815,10 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9826,13 +9826,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -9840,13 +9840,13 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9854,13 +9854,13 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9868,13 +9868,13 @@
         <v>28</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -9882,13 +9882,13 @@
         <v>29</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>11</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9899,7 +9899,7 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -9916,7 +9916,7 @@
         <v>19</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9924,13 +9924,13 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9938,10 +9938,10 @@
         <v>33</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -9952,13 +9952,13 @@
         <v>34</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9966,13 +9966,13 @@
         <v>35</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9980,10 +9980,10 @@
         <v>36</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -9994,13 +9994,13 @@
         <v>37</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -10008,13 +10008,13 @@
         <v>38</v>
       </c>
       <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
         <v>17</v>
       </c>
-      <c r="C65">
-        <v>19</v>
-      </c>
       <c r="D65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10022,13 +10022,13 @@
         <v>39</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
